--- a/hybridOfActiTimeProject/data/ActiTimeExcelSheet.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeExcelSheet.xlsx
@@ -3,18 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BDA06FCD-D0CE-4C4B-8004-5D1F58E2B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProject_Repository\hybridOfActiTimeProject\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507D62F-8D60-44D2-9883-347A3EF7E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreads" sheetId="2" r:id="rId2"/>
-    <sheet name="userdata" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="mgrdata" sheetId="3" r:id="rId3"/>
+    <sheet name="userdata" sheetId="4" r:id="rId4"/>
+    <sheet name="customer&amp;projectList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>USERNAME</t>
   </si>
@@ -89,15 +94,6 @@
     <t>TEST_ENGG1</t>
   </si>
   <si>
-    <t>Devloper</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -132,6 +128,27 @@
   </si>
   <si>
     <t>n1</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>manager1</t>
+  </si>
+  <si>
+    <t>managerFIRST</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>Customer_name</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Web application</t>
   </si>
 </sst>
 </file>
@@ -169,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,16 +209,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +683,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,13 +713,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -662,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3F249-C7BD-4846-B601-4AF8331D37D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,44 +745,79 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4332F2C7-5191-42F7-B58A-550CA7669A4B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/hybridOfActiTimeProject/data/ActiTimeExcelSheet.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeExcelSheet.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProject_Repository\hybridOfActiTimeProject\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507D62F-8D60-44D2-9883-347A3EF7E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C56E52CC-29A5-46BE-8976-4C353AB57258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="customer&amp;projectList" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -682,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D968C842-D472-4907-8FB0-5A9BF29EDB9A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4332F2C7-5191-42F7-B58A-550CA7669A4B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
